--- a/check.xlsx
+++ b/check.xlsx
@@ -1,67 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghupathynarayanamoorthy/Desktop/fabrikProject/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,25 +67,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -396,32 +369,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="17.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?ei=fRZjXOTcNoOYafn9rKgG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zA0eqkqwaKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://olympus.greatlearning.in/login</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/cV63QT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://zoom.us/wc/leave?meetingNumber=442013660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/shxMzb</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/check.xlsx
+++ b/check.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -454,6 +454,21 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.google.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/n1I0qc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/check.xlsx
+++ b/check.xlsx
@@ -1,44 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghupathynarayanamoorthy/Desktop/URLShortener/URLShortener/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>https://olympus.greatlearning.in/login</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/cV63QT</t>
+  </si>
+  <si>
+    <t>https://zoom.us/wc/leave?meetingNumber=442013660</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/shxMzb</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/n1I0qc</t>
+  </si>
+  <si>
+    <t>https://ww.google.com</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/3Wx9Ha</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +117,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,107 +424,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="17.83203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="25"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>43806</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?ei=fRZjXOTcNoOYafn9rKgG</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>43806</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=zA0eqkqwaKE</t>
-        </is>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>43806</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://olympus.greatlearning.in/login</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/cV63QT</t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>43806</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://zoom.us/wc/leave?meetingNumber=442013660</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/shxMzb</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>43806</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.google.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/n1I0qc</t>
-        </is>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/check.xlsx
+++ b/check.xlsx
@@ -1,94 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghupathynarayanamoorthy/Desktop/URLShortener/URLShortener/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>https://olympus.greatlearning.in/login</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/cV63QT</t>
-  </si>
-  <si>
-    <t>https://zoom.us/wc/leave?meetingNumber=442013660</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/shxMzb</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/n1I0qc</t>
-  </si>
-  <si>
-    <t>https://ww.google.com</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/3Wx9Ha</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="166"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,26 +68,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,76 +370,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="17.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>43806</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>url=https://www.google.com/search?ei=A8zwXbbKNOGjgwexorwg&amp;q=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;oq=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;gs_l=psy-ab.3...72803.98520..99167...11.1..0.201.5248.78j2j1......0....1..gws-wiz.......0i71j0i273j0j0i67j0i273i70i249j0i10j0i22i30j0i22i10i30j33i22i29i30j33i21j33i10j33i160.QSfbxswI7Is&amp;ved=0ahUKEwj215eouK3mAhXh0eAKHTERDwQQ4dUDCAs&amp;uact=5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/zdEK4T</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43806</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?ei=A8zwXbbKNOGjgwexorwg&amp;q=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;oq=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;gs_l=psy-ab.3...72803.98520..99167...11.1..0.201.5248.78j2j1......0....1..gws-wiz.......0i71j0i273j0j0i67j0i273i70i249j0i10j0i22i30j0i22i10i30j33i22i29i30j33i21j33i10j33i160.QSfbxswI7Is&amp;ved=0ahUKEwj215eouK3mAhXh0eAKHTERDwQQ4dUDCAs&amp;uact=5&amp;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/ivmboR</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43806</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?ei=fRZjXOTcNoOYafn9rKgG&amp;q=how+to+access+the+icloud+backup&amp;oq=where+to+access+the+iclo&amp;gs_l=psy-ab.1.9.0i22i30l10.38103.49607..55729...0.0..1.268.5408.48j13j6......0....1..gws-wiz.....0..0i71j33i21j0i10j0j0i67.ztWGZvD1ALs&amp;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/zf7EHi</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43806</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?client=safari&amp;channel=iphone_bm&amp;source=hp&amp;ei=iNzwXbOCGq-ejLsP4MuJsAY&amp;q=group+constellation+paris&amp;oq=group+constellation+paris&amp;gs_l=psy-ab.3...2114.9997..11364...0.0..1.189.1471.23j2......0....1..gws-wiz.......0i131j0j0i10j0i22i30j0i19j0i22i10i30j0i13i30i19j0i22i10i30i19j0i13i5i30i19j0i8i13i30j33i22i29i30.zVoDHzjQIgM&amp;ved=0ahUKEwiz5sKIyK3mAhUvD2MBHeBlAmYQ4dUDCAk&amp;uact=5&amp;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/unb247</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/check.xlsx
+++ b/check.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="164"/>
     <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="166"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -77,7 +76,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -375,10 +374,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -386,6 +385,7 @@
     <col customWidth="1" max="1" min="1" style="2" width="17.83203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="57"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="25"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="9.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,64 +404,69 @@
           <t>Short</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Redirection</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>url=https://www.google.com/search?ei=A8zwXbbKNOGjgwexorwg&amp;q=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;oq=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;gs_l=psy-ab.3...72803.98520..99167...11.1..0.201.5248.78j2j1......0....1..gws-wiz.......0i71j0i273j0j0i67j0i273i70i249j0i10j0i22i30j0i22i10i30j33i22i29i30j33i21j33i10j33i160.QSfbxswI7Is&amp;ved=0ahUKEwj215eouK3mAhXh0eAKHTERDwQQ4dUDCAs&amp;uact=5</t>
+          <t>https://www.google.com/search?ei=yAjxXayoFamejLsPkZuS6Ao&amp;q=how+to+find+length+of+array+in+python&amp;oq=how+to+find+length+of+array+&amp;gs_l=psy-ab.1.2.0l2j0i67j0l3j0i10j0l3.24429.30716..32739...0.1..0.187.1742.25j3......0....1..gws-wiz.......0i71j0i273.GF_diQiEeXY&amp;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:5000/zdEK4T</t>
+          <t>http://127.0.0.1:5000/mfHLht</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/api/mfHLht</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?ei=A8zwXbbKNOGjgwexorwg&amp;q=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;oq=when+i+pass+a+string+with+%26%2C+request.args+does+not+take+values+after+%26&amp;gs_l=psy-ab.3...72803.98520..99167...11.1..0.201.5248.78j2j1......0....1..gws-wiz.......0i71j0i273j0j0i67j0i273i70i249j0i10j0i22i30j0i22i10i30j33i22i29i30j33i21j33i10j33i160.QSfbxswI7Is&amp;ved=0ahUKEwj215eouK3mAhXh0eAKHTERDwQQ4dUDCAs&amp;uact=5&amp;</t>
+          <t>https://www.edureka.co/blog/arrays-in-python/&amp;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:5000/ivmboR</t>
+          <t>http://127.0.0.1:5000/oXg1Zm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/api/oXg1Zm</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?ei=fRZjXOTcNoOYafn9rKgG&amp;q=how+to+access+the+icloud+backup&amp;oq=where+to+access+the+iclo&amp;gs_l=psy-ab.1.9.0i22i30l10.38103.49607..55729...0.0..1.268.5408.48j13j6......0....1..gws-wiz.....0..0i71j33i21j0i10j0j0i67.ztWGZvD1ALs&amp;</t>
+          <t>https://www.w3schools.com/python/ref_string_split.asp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:5000/zf7EHi</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>43810</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?client=safari&amp;channel=iphone_bm&amp;source=hp&amp;ei=iNzwXbOCGq-ejLsP4MuJsAY&amp;q=group+constellation+paris&amp;oq=group+constellation+paris&amp;gs_l=psy-ab.3...2114.9997..11364...0.0..1.189.1471.23j2......0....1..gws-wiz.......0i131j0j0i10j0i22i30j0i19j0i22i10i30j0i13i30i19j0i22i10i30i19j0i13i5i30i19j0i8i13i30j33i22i29i30.zVoDHzjQIgM&amp;ved=0ahUKEwiz5sKIyK3mAhUvD2MBHeBlAmYQ4dUDCAk&amp;uact=5&amp;</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/unb247</t>
+          <t>http://127.0.0.1:5000/RjZTU1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/api/RjZTU1</t>
         </is>
       </c>
     </row>

--- a/check.xlsx
+++ b/check.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -470,6 +470,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?ei=6QjxXfrUNJK_UOzFvsgE&amp;q=group+constellation+paris&amp;oq=group+constellation+paris&amp;gs_l=psy-ab.3...1740672.1744935..1745338...0.5..0.120.1349.24j1......0....1..gws-wiz.......0i71j0i273j0i67j0j0i10j0i22i30j33i160.sA0v2_npQOE&amp;ved=0ahUKEwi67Ymy8q3mAhWSHxQKHeyiD0kQ4dUDCAs&amp;uact=5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/1SAytK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:5000/api/1SAytK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/check.xlsx
+++ b/check.xlsx
@@ -1,44 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghupathynarayanamoorthy/Desktop/URLShortener/URLShortener/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +93,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,128 +399,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="17.83203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="25"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="9.6640625"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Redirection</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>43810</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?ei=yAjxXayoFamejLsPkZuS6Ao&amp;q=how+to+find+length+of+array+in+python&amp;oq=how+to+find+length+of+array+&amp;gs_l=psy-ab.1.2.0l2j0i67j0l3j0i10j0l3.24429.30716..32739...0.1..0.187.1742.25j3......0....1..gws-wiz.......0i71j0i273.GF_diQiEeXY&amp;</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/mfHLht</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/api/mfHLht</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>43810</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.edureka.co/blog/arrays-in-python/&amp;</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/oXg1Zm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/api/oXg1Zm</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>43810</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.w3schools.com/python/ref_string_split.asp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/RjZTU1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/api/RjZTU1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>43810</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?ei=6QjxXfrUNJK_UOzFvsgE&amp;q=group+constellation+paris&amp;oq=group+constellation+paris&amp;gs_l=psy-ab.3...1740672.1744935..1745338...0.5..0.120.1349.24j1......0....1..gws-wiz.......0i71j0i273j0i67j0j0i10j0i22i30j33i160.sA0v2_npQOE&amp;ved=0ahUKEwi67Ymy8q3mAhWSHxQKHeyiD0kQ4dUDCAs&amp;uact=5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/1SAytK</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:5000/api/1SAytK</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/check.xlsx
+++ b/check.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Redirection</t>
   </si>
 </sst>
 </file>
@@ -402,9 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -424,9 +419,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
